--- a/MigrationUtility/TestData/input/DemographicMasterData.xlsx
+++ b/MigrationUtility/TestData/input/DemographicMasterData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="3" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sales CRM" sheetId="1" state="hidden" r:id="rId2"/>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">inactive</t>
@@ -2845,7 +2845,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A1 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2958,8 +2958,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A1 C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,7 +3073,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A1 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3213,7 +3213,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="A1 F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3343,7 +3343,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
@@ -3575,13 +3575,13 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31"/>
@@ -10448,7 +10448,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10508,7 +10508,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10678,7 +10678,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A1 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11110,7 +11110,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="A1 C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11423,7 +11423,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A1 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
